--- a/database/industries/darou/detmad/cost/yearly.xlsx
+++ b/database/industries/darou/detmad/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\detmad\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\detmad\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9923ACFE-7D05-4546-9FC4-CB0A96EE5ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B10303-CBDF-4F58-96DD-9EE09CF9AC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="53">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -100,13 +100,10 @@
     <t>عدد</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>مواد اولیه</t>
   </si>
   <si>
-    <t>کیلوگرم</t>
+    <t>مقدار</t>
   </si>
   <si>
     <t>مقدار خرید طی دوره</t>
@@ -139,7 +136,7 @@
     <t>عدد / ریال</t>
   </si>
   <si>
-    <t>کیلوگرم / ریال</t>
+    <t>مقدار / ریال</t>
   </si>
   <si>
     <t>نرخ خرید طی دوره</t>
@@ -641,12 +638,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -656,7 +653,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -668,7 +665,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -680,7 +677,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,7 +687,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -702,7 +699,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -714,7 +711,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -724,7 +721,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -746,7 +743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -756,95 +753,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>676944</v>
+        <v>826378</v>
       </c>
       <c r="F10" s="9">
-        <v>826378</v>
+        <v>1560182</v>
       </c>
       <c r="G10" s="9">
-        <v>1560182</v>
+        <v>2949166</v>
       </c>
       <c r="H10" s="9">
-        <v>2949166</v>
+        <v>3425846</v>
       </c>
       <c r="I10" s="9">
-        <v>3425846</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5266956</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>83653</v>
+        <v>101944</v>
       </c>
       <c r="F11" s="11">
-        <v>101944</v>
+        <v>186654</v>
       </c>
       <c r="G11" s="11">
-        <v>186654</v>
+        <v>252410</v>
       </c>
       <c r="H11" s="11">
-        <v>252410</v>
+        <v>334630</v>
       </c>
       <c r="I11" s="11">
-        <v>334630</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>627938</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>229803</v>
+        <v>256529</v>
       </c>
       <c r="F12" s="9">
-        <v>256529</v>
+        <v>361505</v>
       </c>
       <c r="G12" s="9">
-        <v>361505</v>
+        <v>676791</v>
       </c>
       <c r="H12" s="9">
-        <v>676791</v>
+        <v>984930</v>
       </c>
       <c r="I12" s="9">
-        <v>984930</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1603615</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>990400</v>
+        <v>1184851</v>
       </c>
       <c r="F13" s="13">
-        <v>1184851</v>
+        <v>2108341</v>
       </c>
       <c r="G13" s="13">
-        <v>2108341</v>
+        <v>3878367</v>
       </c>
       <c r="H13" s="13">
-        <v>3878367</v>
+        <v>4745406</v>
       </c>
       <c r="I13" s="13">
-        <v>4745406</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7498509</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -866,161 +863,161 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>990400</v>
+        <v>1184851</v>
       </c>
       <c r="F15" s="13">
-        <v>1184851</v>
+        <v>2108341</v>
       </c>
       <c r="G15" s="13">
-        <v>2108341</v>
+        <v>3878367</v>
       </c>
       <c r="H15" s="13">
-        <v>3878367</v>
+        <v>4745406</v>
       </c>
       <c r="I15" s="13">
-        <v>4745406</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7498509</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-27106</v>
+        <v>-10441</v>
       </c>
       <c r="F16" s="9">
-        <v>-10441</v>
+        <v>160073</v>
       </c>
       <c r="G16" s="9">
-        <v>160073</v>
+        <v>-460058</v>
       </c>
       <c r="H16" s="9">
-        <v>-460058</v>
+        <v>-385358</v>
       </c>
       <c r="I16" s="9">
-        <v>-385358</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-486472</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>-495</v>
+        <v>-73</v>
       </c>
       <c r="F17" s="11">
-        <v>-73</v>
+        <v>-319</v>
       </c>
       <c r="G17" s="11">
-        <v>-319</v>
+        <v>-271</v>
       </c>
       <c r="H17" s="11">
-        <v>-271</v>
+        <v>-15</v>
       </c>
       <c r="I17" s="11">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-158</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>962799</v>
+        <v>1174337</v>
       </c>
       <c r="F18" s="15">
-        <v>1174337</v>
+        <v>2268095</v>
       </c>
       <c r="G18" s="15">
-        <v>2268095</v>
+        <v>3418038</v>
       </c>
       <c r="H18" s="15">
-        <v>3418038</v>
+        <v>4360033</v>
       </c>
       <c r="I18" s="15">
-        <v>4360033</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7011879</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>282809</v>
+        <v>307291</v>
       </c>
       <c r="F19" s="11">
-        <v>307291</v>
+        <v>276294</v>
       </c>
       <c r="G19" s="11">
-        <v>276294</v>
+        <v>448179</v>
       </c>
       <c r="H19" s="11">
-        <v>448179</v>
+        <v>628505</v>
       </c>
       <c r="I19" s="11">
-        <v>628505</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>579056</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-307291</v>
+        <v>-276294</v>
       </c>
       <c r="F20" s="9">
-        <v>-276294</v>
+        <v>-569643</v>
       </c>
       <c r="G20" s="9">
-        <v>-569643</v>
+        <v>-628505</v>
       </c>
       <c r="H20" s="9">
-        <v>-628505</v>
+        <v>-579056</v>
       </c>
       <c r="I20" s="9">
-        <v>-579056</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-621873</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>938317</v>
+        <v>1205334</v>
       </c>
       <c r="F21" s="13">
-        <v>1205334</v>
+        <v>1974746</v>
       </c>
       <c r="G21" s="13">
-        <v>1974746</v>
+        <v>3237712</v>
       </c>
       <c r="H21" s="13">
-        <v>3237712</v>
+        <v>4409482</v>
       </c>
       <c r="I21" s="13">
-        <v>4409482</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6969062</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1033,38 +1030,38 @@
         <v>0</v>
       </c>
       <c r="G22" s="9">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="H22" s="9">
-        <v>-99</v>
+        <v>-114</v>
       </c>
       <c r="I22" s="9">
-        <v>-114</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-224</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>938317</v>
+        <v>1205334</v>
       </c>
       <c r="F23" s="13">
-        <v>1205334</v>
+        <v>1974746</v>
       </c>
       <c r="G23" s="13">
-        <v>1974746</v>
+        <v>3237613</v>
       </c>
       <c r="H23" s="13">
-        <v>3237613</v>
+        <v>4409368</v>
       </c>
       <c r="I23" s="13">
-        <v>4409368</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6968838</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1074,7 +1071,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1084,7 +1081,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1094,7 +1091,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1116,7 +1113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1126,7 +1123,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1134,69 +1131,69 @@
         <v>25</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="9">
+        <v>2311206</v>
+      </c>
+      <c r="F29" s="9">
+        <v>3560687</v>
+      </c>
+      <c r="G29" s="9">
+        <v>5006532</v>
+      </c>
+      <c r="H29" s="9">
+        <v>13054585</v>
+      </c>
+      <c r="I29" s="9">
+        <v>12105461</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="9">
-        <v>2311206</v>
-      </c>
-      <c r="G29" s="9">
-        <v>3560687</v>
-      </c>
-      <c r="H29" s="9">
-        <v>5006532</v>
-      </c>
-      <c r="I29" s="9">
-        <v>13054585</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>26</v>
+      <c r="E30" s="11">
+        <v>640816</v>
       </c>
       <c r="F30" s="11">
-        <v>640816</v>
+        <v>920328</v>
       </c>
       <c r="G30" s="11">
-        <v>920328</v>
+        <v>1801346</v>
       </c>
       <c r="H30" s="11">
-        <v>1801346</v>
+        <v>2290212</v>
       </c>
       <c r="I30" s="11">
-        <v>2290212</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2483269</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>0</v>
+        <v>2952022</v>
       </c>
       <c r="F31" s="15">
-        <v>2952022</v>
+        <v>4481015</v>
       </c>
       <c r="G31" s="15">
-        <v>4481015</v>
+        <v>6807878</v>
       </c>
       <c r="H31" s="15">
-        <v>6807878</v>
+        <v>15344797</v>
       </c>
       <c r="I31" s="15">
-        <v>15344797</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14588730</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1206,7 +1203,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1216,7 +1213,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1226,9 +1223,9 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1248,7 +1245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1258,7 +1255,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>24</v>
       </c>
@@ -1266,69 +1263,69 @@
         <v>25</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="9">
+        <v>11159573</v>
+      </c>
+      <c r="F37" s="9">
+        <v>23300320</v>
+      </c>
+      <c r="G37" s="9">
+        <v>66924001</v>
+      </c>
+      <c r="H37" s="9">
+        <v>80344094</v>
+      </c>
+      <c r="I37" s="9">
+        <v>29778067</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="9">
-        <v>11159573</v>
-      </c>
-      <c r="G37" s="9">
-        <v>23300320</v>
-      </c>
-      <c r="H37" s="9">
-        <v>66924001</v>
-      </c>
-      <c r="I37" s="9">
-        <v>80344094</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
+      <c r="C38" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
-        <v>26</v>
+      <c r="E38" s="11">
+        <v>4068392</v>
       </c>
       <c r="F38" s="11">
-        <v>4068392</v>
+        <v>6403672</v>
       </c>
       <c r="G38" s="11">
-        <v>6403672</v>
+        <v>6830168</v>
       </c>
       <c r="H38" s="11">
-        <v>6830168</v>
+        <v>4609710</v>
       </c>
       <c r="I38" s="11">
-        <v>4609710</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4959903</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>0</v>
+        <v>15227965</v>
       </c>
       <c r="F39" s="15">
-        <v>15227965</v>
+        <v>29703992</v>
       </c>
       <c r="G39" s="15">
-        <v>29703992</v>
+        <v>73754169</v>
       </c>
       <c r="H39" s="15">
-        <v>73754169</v>
+        <v>84953804</v>
       </c>
       <c r="I39" s="15">
-        <v>84953804</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>34737970</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1338,7 +1335,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1348,7 +1345,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1358,9 +1355,9 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1380,7 +1377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1390,7 +1387,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>24</v>
       </c>
@@ -1398,69 +1395,69 @@
         <v>25</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="9">
+        <v>9910092</v>
+      </c>
+      <c r="F45" s="9">
+        <v>21854476</v>
+      </c>
+      <c r="G45" s="9">
+        <v>58875948</v>
+      </c>
+      <c r="H45" s="9">
+        <v>81293218</v>
+      </c>
+      <c r="I45" s="9">
+        <v>29169141</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="9">
-        <v>9910092</v>
-      </c>
-      <c r="G45" s="9">
-        <v>21854476</v>
-      </c>
-      <c r="H45" s="9">
-        <v>58875948</v>
-      </c>
-      <c r="I45" s="9">
-        <v>81293218</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
+      <c r="C46" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
-        <v>26</v>
+      <c r="E46" s="11">
+        <v>3788880</v>
       </c>
       <c r="F46" s="11">
-        <v>3788880</v>
+        <v>5522654</v>
       </c>
       <c r="G46" s="11">
-        <v>5522654</v>
+        <v>6341302</v>
       </c>
       <c r="H46" s="11">
-        <v>6341302</v>
+        <v>4416653</v>
       </c>
       <c r="I46" s="11">
-        <v>4416653</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5181533</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
-        <v>0</v>
+        <v>13698972</v>
       </c>
       <c r="F47" s="15">
-        <v>13698972</v>
+        <v>27377130</v>
       </c>
       <c r="G47" s="15">
-        <v>27377130</v>
+        <v>65217250</v>
       </c>
       <c r="H47" s="15">
-        <v>65217250</v>
+        <v>85709871</v>
       </c>
       <c r="I47" s="15">
-        <v>85709871</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>34350674</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1470,7 +1467,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1480,7 +1477,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1490,9 +1487,9 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -1512,7 +1509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1522,7 +1519,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>24</v>
       </c>
@@ -1530,69 +1527,69 @@
         <v>25</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="9">
+        <v>3560687</v>
+      </c>
+      <c r="F53" s="9">
+        <v>5006531</v>
+      </c>
+      <c r="G53" s="9">
+        <v>13054585</v>
+      </c>
+      <c r="H53" s="9">
+        <v>12105461</v>
+      </c>
+      <c r="I53" s="9">
+        <v>12714387</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F53" s="9">
-        <v>3560687</v>
-      </c>
-      <c r="G53" s="9">
-        <v>5006531</v>
-      </c>
-      <c r="H53" s="9">
-        <v>13054585</v>
-      </c>
-      <c r="I53" s="9">
-        <v>12105461</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="10" t="s">
+      <c r="C54" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>26</v>
+      <c r="E54" s="11">
+        <v>920328</v>
       </c>
       <c r="F54" s="11">
-        <v>920328</v>
+        <v>1801346</v>
       </c>
       <c r="G54" s="11">
-        <v>1801346</v>
+        <v>2290212</v>
       </c>
       <c r="H54" s="11">
-        <v>2290212</v>
+        <v>2483269</v>
       </c>
       <c r="I54" s="11">
-        <v>2483269</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2261639</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15">
-        <v>0</v>
+        <v>4481015</v>
       </c>
       <c r="F55" s="15">
-        <v>4481015</v>
+        <v>6807877</v>
       </c>
       <c r="G55" s="15">
-        <v>6807877</v>
+        <v>15344797</v>
       </c>
       <c r="H55" s="15">
-        <v>15344797</v>
+        <v>14588730</v>
       </c>
       <c r="I55" s="15">
-        <v>14588730</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14976026</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1602,7 +1599,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1612,7 +1609,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1622,9 +1619,9 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -1644,7 +1641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1654,77 +1651,77 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="9">
+        <v>8779</v>
+      </c>
+      <c r="F61" s="9">
+        <v>17302</v>
+      </c>
+      <c r="G61" s="9">
+        <v>16677</v>
+      </c>
+      <c r="H61" s="9">
+        <v>50742</v>
+      </c>
+      <c r="I61" s="9">
+        <v>90645</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B62" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F61" s="9">
-        <v>8779</v>
-      </c>
-      <c r="G61" s="9">
-        <v>17302</v>
-      </c>
-      <c r="H61" s="9">
-        <v>16677</v>
-      </c>
-      <c r="I61" s="9">
-        <v>50742</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="C62" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D62" s="11"/>
-      <c r="E62" s="11" t="s">
-        <v>26</v>
+      <c r="E62" s="11">
+        <v>126124</v>
       </c>
       <c r="F62" s="11">
-        <v>126124</v>
+        <v>202213</v>
       </c>
       <c r="G62" s="11">
-        <v>202213</v>
+        <v>549973</v>
       </c>
       <c r="H62" s="11">
-        <v>549973</v>
+        <v>1485388</v>
       </c>
       <c r="I62" s="11">
-        <v>1485388</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1551019</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15">
-        <v>0</v>
+        <v>134903</v>
       </c>
       <c r="F63" s="15">
-        <v>134903</v>
+        <v>219515</v>
       </c>
       <c r="G63" s="15">
-        <v>219515</v>
+        <v>566650</v>
       </c>
       <c r="H63" s="15">
-        <v>566650</v>
+        <v>1536130</v>
       </c>
       <c r="I63" s="15">
-        <v>1536130</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1641664</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1734,7 +1731,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1744,7 +1741,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1754,9 +1751,9 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -1776,7 +1773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1786,77 +1783,77 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D69" s="9"/>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="9">
+        <v>38379</v>
+      </c>
+      <c r="F69" s="9">
+        <v>60121</v>
+      </c>
+      <c r="G69" s="9">
+        <v>158573</v>
+      </c>
+      <c r="H69" s="9">
+        <v>265043</v>
+      </c>
+      <c r="I69" s="9">
+        <v>293726</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F69" s="9">
-        <v>38379</v>
-      </c>
-      <c r="G69" s="9">
-        <v>60121</v>
-      </c>
-      <c r="H69" s="9">
-        <v>158573</v>
-      </c>
-      <c r="I69" s="9">
-        <v>265043</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="C70" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D70" s="11"/>
-      <c r="E70" s="11" t="s">
-        <v>26</v>
+      <c r="E70" s="11">
+        <v>872611</v>
       </c>
       <c r="F70" s="11">
-        <v>872611</v>
+        <v>1847195</v>
       </c>
       <c r="G70" s="11">
-        <v>1847195</v>
+        <v>3760073</v>
       </c>
       <c r="H70" s="11">
-        <v>3760073</v>
+        <v>3266337</v>
       </c>
       <c r="I70" s="11">
-        <v>3266337</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5129856</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
-        <v>0</v>
+        <v>910990</v>
       </c>
       <c r="F71" s="15">
-        <v>910990</v>
+        <v>1907316</v>
       </c>
       <c r="G71" s="15">
-        <v>1907316</v>
+        <v>3918646</v>
       </c>
       <c r="H71" s="15">
-        <v>3918646</v>
+        <v>3531380</v>
       </c>
       <c r="I71" s="15">
-        <v>3531380</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5423582</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1866,7 +1863,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1876,7 +1873,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1886,9 +1883,9 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -1908,7 +1905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1918,77 +1915,77 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="9">
+        <v>29856</v>
+      </c>
+      <c r="F77" s="9">
+        <v>60746</v>
+      </c>
+      <c r="G77" s="9">
+        <v>124508</v>
+      </c>
+      <c r="H77" s="9">
+        <v>225140</v>
+      </c>
+      <c r="I77" s="9">
+        <v>300315</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B78" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F77" s="9">
-        <v>29856</v>
-      </c>
-      <c r="G77" s="9">
-        <v>60746</v>
-      </c>
-      <c r="H77" s="9">
-        <v>124508</v>
-      </c>
-      <c r="I77" s="9">
-        <v>225140</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="C78" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="11" t="s">
-        <v>26</v>
+      <c r="E78" s="11">
+        <v>796522</v>
       </c>
       <c r="F78" s="11">
-        <v>796522</v>
+        <v>1499436</v>
       </c>
       <c r="G78" s="11">
-        <v>1499436</v>
+        <v>2824658</v>
       </c>
       <c r="H78" s="11">
-        <v>2824658</v>
+        <v>3200706</v>
       </c>
       <c r="I78" s="11">
-        <v>3200706</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4966641</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
-        <v>0</v>
+        <v>826378</v>
       </c>
       <c r="F79" s="15">
-        <v>826378</v>
+        <v>1560182</v>
       </c>
       <c r="G79" s="15">
-        <v>1560182</v>
+        <v>2949166</v>
       </c>
       <c r="H79" s="15">
-        <v>2949166</v>
+        <v>3425846</v>
       </c>
       <c r="I79" s="15">
-        <v>3425846</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5266956</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1998,7 +1995,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2008,7 +2005,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2018,9 +2015,9 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2040,7 +2037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2050,77 +2047,77 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="9">
+        <v>17302</v>
+      </c>
+      <c r="F85" s="9">
+        <v>16677</v>
+      </c>
+      <c r="G85" s="9">
+        <v>50742</v>
+      </c>
+      <c r="H85" s="9">
+        <v>90645</v>
+      </c>
+      <c r="I85" s="9">
+        <v>84056</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B86" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F85" s="9">
-        <v>17302</v>
-      </c>
-      <c r="G85" s="9">
-        <v>16677</v>
-      </c>
-      <c r="H85" s="9">
-        <v>50742</v>
-      </c>
-      <c r="I85" s="9">
-        <v>90645</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="C86" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D86" s="11"/>
-      <c r="E86" s="11" t="s">
-        <v>26</v>
+      <c r="E86" s="11">
+        <v>202213</v>
       </c>
       <c r="F86" s="11">
-        <v>202213</v>
+        <v>549972</v>
       </c>
       <c r="G86" s="11">
-        <v>549972</v>
+        <v>1485388</v>
       </c>
       <c r="H86" s="11">
-        <v>1485388</v>
+        <v>1551019</v>
       </c>
       <c r="I86" s="11">
-        <v>1551019</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1714234</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
-        <v>0</v>
+        <v>219515</v>
       </c>
       <c r="F87" s="15">
-        <v>219515</v>
+        <v>566649</v>
       </c>
       <c r="G87" s="15">
-        <v>566649</v>
+        <v>1536130</v>
       </c>
       <c r="H87" s="15">
-        <v>1536130</v>
+        <v>1641664</v>
       </c>
       <c r="I87" s="15">
-        <v>1641664</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1798290</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2130,7 +2127,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2140,7 +2137,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2150,9 +2147,9 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -2172,7 +2169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2182,55 +2179,55 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C93" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9">
+        <v>3798</v>
+      </c>
+      <c r="F93" s="9">
+        <v>4859</v>
+      </c>
+      <c r="G93" s="9">
+        <v>3331</v>
+      </c>
+      <c r="H93" s="9">
+        <v>3887</v>
+      </c>
+      <c r="I93" s="9">
+        <v>7488</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B94" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F93" s="9">
-        <v>3798</v>
-      </c>
-      <c r="G93" s="9">
-        <v>4859</v>
-      </c>
-      <c r="H93" s="9">
-        <v>3331</v>
-      </c>
-      <c r="I93" s="9">
-        <v>3887</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="D94" s="11"/>
-      <c r="E94" s="11" t="s">
-        <v>26</v>
+      <c r="E94" s="11">
+        <v>196818</v>
       </c>
       <c r="F94" s="11">
-        <v>196818</v>
+        <v>219718</v>
       </c>
       <c r="G94" s="11">
-        <v>219718</v>
+        <v>305312</v>
       </c>
       <c r="H94" s="11">
-        <v>305312</v>
+        <v>648581</v>
       </c>
       <c r="I94" s="11">
-        <v>648581</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>624588</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2240,7 +2237,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2250,7 +2247,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2260,9 +2257,9 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B98" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -2282,7 +2279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2292,55 +2289,55 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C100" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9">
+        <v>3439</v>
+      </c>
+      <c r="F100" s="9">
+        <v>2580</v>
+      </c>
+      <c r="G100" s="9">
+        <v>2369</v>
+      </c>
+      <c r="H100" s="9">
+        <v>3299</v>
+      </c>
+      <c r="I100" s="9">
+        <v>9864</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B101" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F100" s="9">
-        <v>3439</v>
-      </c>
-      <c r="G100" s="9">
-        <v>2580</v>
-      </c>
-      <c r="H100" s="9">
-        <v>2369</v>
-      </c>
-      <c r="I100" s="9">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="D101" s="11"/>
-      <c r="E101" s="11" t="s">
-        <v>26</v>
+      <c r="E101" s="11">
+        <v>214485</v>
       </c>
       <c r="F101" s="11">
-        <v>214485</v>
+        <v>288459</v>
       </c>
       <c r="G101" s="11">
-        <v>288459</v>
+        <v>550510</v>
       </c>
       <c r="H101" s="11">
-        <v>550510</v>
+        <v>708578</v>
       </c>
       <c r="I101" s="11">
-        <v>708578</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1034265</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2350,7 +2347,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2360,7 +2357,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2370,9 +2367,9 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -2392,7 +2389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2402,55 +2399,55 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C107" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9">
+        <v>3013</v>
+      </c>
+      <c r="F107" s="9">
+        <v>2780</v>
+      </c>
+      <c r="G107" s="9">
+        <v>2115</v>
+      </c>
+      <c r="H107" s="9">
+        <v>2769</v>
+      </c>
+      <c r="I107" s="9">
+        <v>10296</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B108" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F107" s="9">
-        <v>3013</v>
-      </c>
-      <c r="G107" s="9">
-        <v>2780</v>
-      </c>
-      <c r="H107" s="9">
-        <v>2115</v>
-      </c>
-      <c r="I107" s="9">
-        <v>2769</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="D108" s="11"/>
-      <c r="E108" s="11" t="s">
-        <v>26</v>
+      <c r="E108" s="11">
+        <v>210226</v>
       </c>
       <c r="F108" s="11">
-        <v>210226</v>
+        <v>271506</v>
       </c>
       <c r="G108" s="11">
-        <v>271506</v>
+        <v>445438</v>
       </c>
       <c r="H108" s="11">
-        <v>445438</v>
+        <v>724690</v>
       </c>
       <c r="I108" s="11">
-        <v>724690</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>958527</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2460,7 +2457,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2470,7 +2467,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2480,9 +2477,9 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -2502,7 +2499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2512,7 +2509,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>24</v>
       </c>
@@ -2520,47 +2517,47 @@
         <v>25</v>
       </c>
       <c r="D114" s="9"/>
-      <c r="E114" s="9" t="s">
+      <c r="E114" s="9">
+        <v>4859</v>
+      </c>
+      <c r="F114" s="9">
+        <v>3331</v>
+      </c>
+      <c r="G114" s="9">
+        <v>3887</v>
+      </c>
+      <c r="H114" s="9">
+        <v>7488</v>
+      </c>
+      <c r="I114" s="9">
+        <v>6611</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B115" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F114" s="9">
-        <v>4859</v>
-      </c>
-      <c r="G114" s="9">
-        <v>3331</v>
-      </c>
-      <c r="H114" s="9">
-        <v>3887</v>
-      </c>
-      <c r="I114" s="9">
-        <v>7488</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="10" t="s">
+      <c r="C115" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C115" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="D115" s="11"/>
-      <c r="E115" s="11" t="s">
-        <v>26</v>
+      <c r="E115" s="11">
+        <v>219718</v>
       </c>
       <c r="F115" s="11">
-        <v>219718</v>
+        <v>305312</v>
       </c>
       <c r="G115" s="11">
-        <v>305312</v>
+        <v>648581</v>
       </c>
       <c r="H115" s="11">
-        <v>648581</v>
+        <v>624588</v>
       </c>
       <c r="I115" s="11">
-        <v>624588</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+        <v>757961</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2570,7 +2567,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2580,7 +2577,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -2590,9 +2587,9 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -2612,7 +2609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2622,9 +2619,9 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
@@ -2644,9 +2641,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
@@ -2666,9 +2663,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
@@ -2688,9 +2685,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
@@ -2710,97 +2707,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
-        <v>4997</v>
+        <v>7408</v>
       </c>
       <c r="F125" s="9">
-        <v>7408</v>
+        <v>29559</v>
       </c>
       <c r="G125" s="9">
-        <v>29559</v>
+        <v>48917</v>
       </c>
       <c r="H125" s="9">
-        <v>48917</v>
+        <v>56909</v>
       </c>
       <c r="I125" s="9">
-        <v>56909</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+        <v>60094</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>10177</v>
+        <v>10607</v>
       </c>
       <c r="F126" s="11">
-        <v>10607</v>
+        <v>15209</v>
       </c>
       <c r="G126" s="11">
-        <v>15209</v>
+        <v>17578</v>
       </c>
       <c r="H126" s="11">
-        <v>17578</v>
+        <v>40831</v>
       </c>
       <c r="I126" s="11">
-        <v>40831</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+        <v>53550</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
-        <v>27228</v>
+        <v>35806</v>
       </c>
       <c r="F127" s="9">
-        <v>35806</v>
+        <v>39305</v>
       </c>
       <c r="G127" s="9">
-        <v>39305</v>
+        <v>54530</v>
       </c>
       <c r="H127" s="9">
-        <v>54530</v>
+        <v>77931</v>
       </c>
       <c r="I127" s="9">
-        <v>77931</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+        <v>60674</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>134874</v>
+        <v>155975</v>
       </c>
       <c r="F128" s="11">
-        <v>155975</v>
+        <v>200887</v>
       </c>
       <c r="G128" s="11">
-        <v>200887</v>
+        <v>280257</v>
       </c>
       <c r="H128" s="11">
-        <v>280257</v>
+        <v>409353</v>
       </c>
       <c r="I128" s="11">
-        <v>409353</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+        <v>784713</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
@@ -2820,48 +2817,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
-        <v>52527</v>
+        <v>46733</v>
       </c>
       <c r="F130" s="11">
-        <v>46733</v>
+        <v>76545</v>
       </c>
       <c r="G130" s="11">
-        <v>76545</v>
+        <v>275509</v>
       </c>
       <c r="H130" s="11">
-        <v>275509</v>
+        <v>399906</v>
       </c>
       <c r="I130" s="11">
-        <v>399906</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+        <v>644584</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15">
-        <v>229803</v>
+        <v>256529</v>
       </c>
       <c r="F131" s="15">
-        <v>256529</v>
+        <v>361505</v>
       </c>
       <c r="G131" s="15">
-        <v>361505</v>
+        <v>676791</v>
       </c>
       <c r="H131" s="15">
-        <v>676791</v>
+        <v>984930</v>
       </c>
       <c r="I131" s="15">
-        <v>984930</v>
+        <v>1603615</v>
       </c>
     </row>
   </sheetData>
